--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0714496A-8B49-4F45-A027-920FEE7E8B9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFAF2A-B329-4BF8-AFB4-DE96EF97BF43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56B985-C67E-4CA5-8E14-F83349506217}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFAF2A-B329-4BF8-AFB4-DE96EF97BF43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADAA96-C4B7-492F-BE0B-C09A12DF6862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>104</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>116</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>11</v>
